--- a/tests/test_files/reports/Example_Report_1.xlsx
+++ b/tests/test_files/reports/Example_Report_1.xlsx
@@ -10,17 +10,23 @@
     <sheet name="individual_report_1" sheetId="1" r:id="rId1"/>
     <sheet name="group_report_1" sheetId="2" r:id="rId2"/>
     <sheet name="overall_report_1" sheetId="3" r:id="rId3"/>
+    <sheet name="individual_report_2" sheetId="4" r:id="rId4"/>
+    <sheet name="group_report_2" sheetId="5" r:id="rId5"/>
+    <sheet name="overall_report_2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="54">
   <si>
     <t>Student Id</t>
   </si>
   <si>
+    <t>Disliked Students</t>
+  </si>
+  <si>
     <t>Meets Dislike Requirement</t>
   </si>
   <si>
@@ -54,6 +60,27 @@
     <t>Group Id</t>
   </si>
   <si>
+    <t>mmuster3</t>
+  </si>
+  <si>
+    <t>jdoe2</t>
+  </si>
+  <si>
+    <t>monday @ 3:00 AM - 6:00 AM;tuesday @ 3:00 AM - 6:00 AM;wednesday @ 3:00 PM - 6:00 PM;thursday @ 3:00 PM - 6:00 PM;thursday @ 6:00 PM - 9:00 PM;friday @ 9:00 PM - 12:00 PM</t>
+  </si>
+  <si>
+    <t>monday @ 3:00 AM - 6:00 AM;tuesday @ 3:00 AM - 6:00 AM;wednesday @ 3:00 PM - 6:00 PM</t>
+  </si>
+  <si>
+    <t>bwillia5;jsmith1</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>bwillia5</t>
   </si>
   <si>
@@ -63,42 +90,24 @@
     <t>monday @ 0:00 AM - 3:00 AM;tuesday @ 0:00 AM - 3:00 AM;wednesday @ 0:00 AM - 3:00 AM;thursday @ 0:00 AM - 3:00 AM;friday @ 0:00 AM - 3:00 AM;saturday @ 0:00 AM - 3:00 AM;sunday @ 0:00 AM - 3:00 AM;monday @ 3:00 AM - 6:00 AM;tuesday @ 3:00 AM - 6:00 AM;wednesday @ 3:00 AM - 6:00 AM;thursday @ 3:00 AM - 6:00 AM;friday @ 3:00 AM - 6:00 AM;saturday @ 3:00 AM - 6:00 AM;sunday @ 3:00 AM - 6:00 AM;monday @ 6:00 AM - 9:00 AM;tuesday @ 6:00 AM - 9:00 AM;wednesday @ 6:00 AM - 9:00 AM;thursday @ 6:00 AM - 9:00 AM;friday @ 6:00 AM - 9:00 AM;saturday @ 6:00 AM - 9:00 AM;sunday @ 6:00 AM - 9:00 AM;monday @ 9:00 AM - 12:00 PM;tuesday @ 9:00 AM - 12:00 PM;wednesday @ 9:00 AM - 12:00 PM;thursday @ 9:00 AM - 12:00 PM;friday @ 9:00 AM - 12:00 PM;saturday @ 9:00 AM - 12:00 PM;sunday @ 9:00 AM - 12:00 PM;monday @ 12:00 PM - 3:00 PM;tuesday @ 12:00 PM - 3:00 PM;wednesday @ 12:00 PM - 3:00 PM;thursday @ 12:00 PM - 3:00 PM;friday @ 12:00 PM - 3:00 PM;saturday @ 12:00 PM - 3:00 PM;sunday @ 12:00 PM - 3:00 PM;monday @ 3:00 PM - 6:00 PM;tuesday @ 3:00 PM - 6:00 PM;wednesday @ 3:00 PM - 6:00 PM;thursday @ 3:00 PM - 6:00 PM;friday @ 3:00 PM - 6:00 PM;saturday @ 3:00 PM - 6:00 PM;sunday @ 3:00 PM - 6:00 PM;monday @ 6:00 PM - 9:00 PM;tuesday @ 6:00 PM - 9:00 PM;wednesday @ 6:00 PM - 9:00 PM;thursday @ 6:00 PM - 9:00 PM;friday @ 6:00 PM - 9:00 PM;saturday @ 6:00 PM - 9:00 PM;sunday @ 6:00 PM - 9:00 PM;monday @ 9:00 PM - 12:00 PM;tuesday @ 9:00 PM - 12:00 PM;wednesday @ 9:00 PM - 12:00 PM;thursday @ 9:00 PM - 12:00 PM;friday @ 9:00 PM - 12:00 PM;saturday @ 9:00 PM - 12:00 PM;sunday @ 9:00 PM - 12:00 PM</t>
   </si>
   <si>
-    <t>monday @ 3:00 AM - 6:00 AM;tuesday @ 3:00 AM - 6:00 AM;wednesday @ 3:00 PM - 6:00 PM</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>False</t>
   </si>
   <si>
     <t>jsmith1</t>
   </si>
   <si>
-    <t>mmuster3</t>
+    <t>jschmo4;mmuster3</t>
   </si>
   <si>
     <t>sunday @ 0:00 AM - 3:00 AM;thursday @ 0:00 AM - 3:00 AM;friday @ 0:00 AM - 3:00 AM;monday @ 3:00 AM - 6:00 AM;tuesday @ 3:00 AM - 6:00 AM;tuesday @ 3:00 PM - 6:00 PM;wednesday @ 3:00 PM - 6:00 PM</t>
   </si>
   <si>
-    <t>jdoe2</t>
-  </si>
-  <si>
-    <t>monday @ 3:00 AM - 6:00 AM;tuesday @ 3:00 AM - 6:00 AM;wednesday @ 3:00 PM - 6:00 PM;thursday @ 3:00 PM - 6:00 PM;thursday @ 6:00 PM - 9:00 PM;friday @ 9:00 PM - 12:00 PM</t>
-  </si>
-  <si>
-    <t>bwillia5;jsmith1</t>
+    <t>jschmo4</t>
   </si>
   <si>
     <t>monday @ 3:00 AM - 6:00 AM;tuesday @ 3:00 AM - 6:00 AM;tuesday @ 12:00 PM - 3:00 PM;wednesday @ 3:00 PM - 6:00 PM</t>
   </si>
   <si>
-    <t>jschmo4;mmuster3</t>
-  </si>
-  <si>
-    <t>jschmo4</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -154,6 +163,24 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>group_1</t>
+  </si>
+  <si>
+    <t>group_2</t>
+  </si>
+  <si>
+    <t>jsmith1/jdoe2</t>
+  </si>
+  <si>
+    <t>jdoe2/jsmith1</t>
+  </si>
+  <si>
+    <t>mmuster3/bwillia5</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -485,13 +512,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -528,168 +555,180 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
         <v>25</v>
       </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
-      </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="M6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -707,45 +746,45 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -754,25 +793,25 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -783,7 +822,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -795,13 +834,13 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -828,48 +867,454 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F2">
         <v>-20.6875</v>
       </c>
       <c r="G2">
         <v>10.451</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>-20.895</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0.1125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2">
+        <v>-20.7825</v>
+      </c>
+      <c r="G2">
+        <v>10.504</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test_files/reports/Example_Report_1.xlsx
+++ b/tests/test_files/reports/Example_Report_1.xlsx
@@ -13,13 +13,14 @@
     <sheet name="individual_report_2" sheetId="4" r:id="rId4"/>
     <sheet name="group_report_2" sheetId="5" r:id="rId5"/>
     <sheet name="overall_report_2" sheetId="6" r:id="rId6"/>
+    <sheet name="survey_data" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="107">
   <si>
     <t>Student Id</t>
   </si>
@@ -60,25 +61,34 @@
     <t>Group Id</t>
   </si>
   <si>
+    <t>jsmith1</t>
+  </si>
+  <si>
+    <t>mmuster3;jschmo4</t>
+  </si>
+  <si>
     <t>mmuster3</t>
   </si>
   <si>
+    <t>sunday @ 0:00 AM - 3:00 AM;thursday @ 0:00 AM - 3:00 AM;friday @ 0:00 AM - 3:00 AM;monday @ 3:00 AM - 6:00 AM;tuesday @ 3:00 AM - 6:00 AM;tuesday @ 3:00 PM - 6:00 PM;wednesday @ 3:00 PM - 6:00 PM</t>
+  </si>
+  <si>
+    <t>monday @ 3:00 AM - 6:00 AM;tuesday @ 3:00 AM - 6:00 AM;wednesday @ 3:00 PM - 6:00 PM</t>
+  </si>
+  <si>
     <t>jdoe2</t>
   </si>
   <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>monday @ 3:00 AM - 6:00 AM;tuesday @ 3:00 AM - 6:00 AM;wednesday @ 3:00 PM - 6:00 PM;thursday @ 3:00 PM - 6:00 PM;thursday @ 6:00 PM - 9:00 PM;friday @ 9:00 PM - 12:00 PM</t>
   </si>
   <si>
-    <t>monday @ 3:00 AM - 6:00 AM;tuesday @ 3:00 AM - 6:00 AM;wednesday @ 3:00 PM - 6:00 PM</t>
-  </si>
-  <si>
-    <t>bwillia5;jsmith1</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>jsmith1;bwillia5</t>
   </si>
   <si>
     <t>bwillia5</t>
@@ -93,21 +103,12 @@
     <t>False</t>
   </si>
   <si>
-    <t>jsmith1</t>
-  </si>
-  <si>
-    <t>jschmo4;mmuster3</t>
-  </si>
-  <si>
-    <t>sunday @ 0:00 AM - 3:00 AM;thursday @ 0:00 AM - 3:00 AM;friday @ 0:00 AM - 3:00 AM;monday @ 3:00 AM - 6:00 AM;tuesday @ 3:00 AM - 6:00 AM;tuesday @ 3:00 PM - 6:00 PM;wednesday @ 3:00 PM - 6:00 PM</t>
+    <t>monday @ 3:00 AM - 6:00 AM;tuesday @ 3:00 AM - 6:00 AM;tuesday @ 12:00 PM - 3:00 PM;wednesday @ 3:00 PM - 6:00 PM</t>
   </si>
   <si>
     <t>jschmo4</t>
   </si>
   <si>
-    <t>monday @ 3:00 AM - 6:00 AM;tuesday @ 3:00 AM - 6:00 AM;tuesday @ 12:00 PM - 3:00 PM;wednesday @ 3:00 PM - 6:00 PM</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -129,7 +130,7 @@
     <t>Score</t>
   </si>
   <si>
-    <t>mmuster3/bwillia5;mmuster3/jsmith1</t>
+    <t>mmuster3/jsmith1;mmuster3/bwillia5</t>
   </si>
   <si>
     <t>jsmith1/mmuster3</t>
@@ -181,6 +182,165 @@
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Please select your ASURITE ID</t>
+  </si>
+  <si>
+    <t>Please enter your Github username (NOT your email address)</t>
+  </si>
+  <si>
+    <t>Email address for us to invite you to the Taiga scrumboard</t>
+  </si>
+  <si>
+    <t>In what time zone do you live or will you be during the session? Please use UTC so we can match it easier.</t>
+  </si>
+  <si>
+    <t>Please choose times that are good for your team to meet. Times are in the Phoenix, AZ time zone! [0:00 AM - 3:00 AM]</t>
+  </si>
+  <si>
+    <t>Please choose times that are good for your team to meet. Times are in the Phoenix, AZ time zone! [3:00 AM - 6:00 AM]</t>
+  </si>
+  <si>
+    <t>Please choose times that are good for your team to meet. Times are in the Phoenix, AZ time zone! [6:00 AM - 9:00 AM]</t>
+  </si>
+  <si>
+    <t>Please choose times that are good for your team to meet. Times are in the Phoenix, AZ time zone! [9:00 AM - 12:00 PM]</t>
+  </si>
+  <si>
+    <t>Please choose times that are good for your team to meet. Times are in the Phoenix, AZ time zone! [12:00 PM - 3:00 PM]</t>
+  </si>
+  <si>
+    <t>Please choose times that are good for your team to meet. Times are in the Phoenix, AZ time zone! [3:00 PM - 6:00 PM]</t>
+  </si>
+  <si>
+    <t>Please choose times that are good for your team to meet. Times are in the Phoenix, AZ time zone! [6:00 PM - 9:00 PM]</t>
+  </si>
+  <si>
+    <t>Please choose times that are good for your team to meet. Times are in the Phoenix, AZ time zone! [9:00 PM - 12:00 PM]</t>
+  </si>
+  <si>
+    <t>How well would you say you know GitHub? (1 not at all, 5 worked with it a lot - know how to merge, resolve conflicts, etc.) You are not expected to know GitHub well yet, so please be honest. It will not be used for grading what you put here but I want to try to have one student knowing GitHub in each team to make things easier.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you know Scrum already? (1 just heard about it, 5 know it well (process, roles). You are not expected to know Scrum yet, so please be honest. It will not be used for grading what you put here. </t>
+  </si>
+  <si>
+    <t>Preferred team member 1</t>
+  </si>
+  <si>
+    <t>Preferred team member 2</t>
+  </si>
+  <si>
+    <t>Preferred team member 3</t>
+  </si>
+  <si>
+    <t>Preferred team member 4</t>
+  </si>
+  <si>
+    <t>Preferred team member 5</t>
+  </si>
+  <si>
+    <t>Non-preferred student 1</t>
+  </si>
+  <si>
+    <t>Non-preferred student 2</t>
+  </si>
+  <si>
+    <t>Non-preferred student 3</t>
+  </si>
+  <si>
+    <t>2022/10/17 6:31:58 PM EST</t>
+  </si>
+  <si>
+    <t>jsmith1@asu.edu</t>
+  </si>
+  <si>
+    <t>jsmith_1</t>
+  </si>
+  <si>
+    <t>johnsmith@gmail.com</t>
+  </si>
+  <si>
+    <t>UTC +1</t>
+  </si>
+  <si>
+    <t>Sunday;Thursday;Friday</t>
+  </si>
+  <si>
+    <t>Monday;Tuesday</t>
+  </si>
+  <si>
+    <t>Tuesday;Wednesday</t>
+  </si>
+  <si>
+    <t>jdoe2 - Jane Doe</t>
+  </si>
+  <si>
+    <t>mmuster3 - Max Mustermann</t>
+  </si>
+  <si>
+    <t>jschmo4 - Joe Schmo</t>
+  </si>
+  <si>
+    <t>2022/10/17 6:33:27 PM EST</t>
+  </si>
+  <si>
+    <t>jdoe2@asu.edu</t>
+  </si>
+  <si>
+    <t>jdoe_2</t>
+  </si>
+  <si>
+    <t>janedoe@gmail.com</t>
+  </si>
+  <si>
+    <t>UTC +2</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>jsmith1 - John Smith</t>
+  </si>
+  <si>
+    <t>bwillia5 - Billy Williams</t>
+  </si>
+  <si>
+    <t>2022/10/17 6:34:15 PM EST</t>
+  </si>
+  <si>
+    <t>mmuster3@asu.edu</t>
+  </si>
+  <si>
+    <t>mmuster_3</t>
+  </si>
+  <si>
+    <t>maxmustermann@gmail.com</t>
+  </si>
+  <si>
+    <t>UTC +3</t>
+  </si>
+  <si>
+    <t>Wednesday;Thursday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
   </si>
 </sst>
 </file>
@@ -567,127 +727,136 @@
         <v>14</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
         <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
         <v>28</v>
       </c>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M5" t="s">
         <v>29</v>
@@ -695,37 +864,28 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
         <v>27</v>
       </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M6" t="s">
         <v>29</v>
@@ -784,7 +944,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -793,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -834,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -893,7 +1053,7 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>45</v>
@@ -967,37 +1127,37 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
         <v>48</v>
@@ -1005,37 +1165,37 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M3" t="s">
         <v>48</v>
@@ -1043,37 +1203,37 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M4" t="s">
         <v>49</v>
@@ -1081,28 +1241,28 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M5" t="s">
         <v>49</v>
@@ -1110,28 +1270,28 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M6" t="s">
         <v>49</v>
@@ -1199,13 +1359,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -1240,7 +1400,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -1299,7 +1459,7 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>45</v>
@@ -1315,6 +1475,241 @@
       </c>
       <c r="G2">
         <v>10.504</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:X6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>86</v>
+      </c>
+      <c r="V2" t="s">
+        <v>87</v>
+      </c>
+      <c r="W2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" t="s">
+        <v>95</v>
+      </c>
+      <c r="O3" t="s">
+        <v>96</v>
+      </c>
+      <c r="P3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>87</v>
+      </c>
+      <c r="R3" t="s">
+        <v>88</v>
+      </c>
+      <c r="V3" t="s">
+        <v>97</v>
+      </c>
+      <c r="W3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" t="s">
+        <v>104</v>
+      </c>
+      <c r="M4" t="s">
+        <v>105</v>
+      </c>
+      <c r="N4" t="s">
+        <v>106</v>
+      </c>
+      <c r="O4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>97</v>
+      </c>
+      <c r="R4" t="s">
+        <v>98</v>
+      </c>
+      <c r="V4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="C6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test_files/reports/Example_Report_1.xlsx
+++ b/tests/test_files/reports/Example_Report_1.xlsx
@@ -13,14 +13,15 @@
     <sheet name="individual_report_2" sheetId="4" r:id="rId4"/>
     <sheet name="group_report_2" sheetId="5" r:id="rId5"/>
     <sheet name="overall_report_2" sheetId="6" r:id="rId6"/>
-    <sheet name="survey_data" sheetId="7" r:id="rId7"/>
+    <sheet name="config" sheetId="7" r:id="rId7"/>
+    <sheet name="survey_data" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="127">
   <si>
     <t>Student Id</t>
   </si>
@@ -88,7 +89,7 @@
     <t>monday @ 3:00 AM - 6:00 AM;tuesday @ 3:00 AM - 6:00 AM;wednesday @ 3:00 PM - 6:00 PM;thursday @ 3:00 PM - 6:00 PM;thursday @ 6:00 PM - 9:00 PM;friday @ 9:00 PM - 12:00 PM</t>
   </si>
   <si>
-    <t>jsmith1;bwillia5</t>
+    <t>bwillia5;jsmith1</t>
   </si>
   <si>
     <t>bwillia5</t>
@@ -130,7 +131,7 @@
     <t>Score</t>
   </si>
   <si>
-    <t>mmuster3/jsmith1;mmuster3/bwillia5</t>
+    <t>mmuster3/bwillia5;mmuster3/jsmith1</t>
   </si>
   <si>
     <t>jsmith1/mmuster3</t>
@@ -184,76 +185,136 @@
     <t>7</t>
   </si>
   <si>
+    <t>class_name</t>
+  </si>
+  <si>
+    <t>target_group_size</t>
+  </si>
+  <si>
+    <t>target_plus_one_allowed</t>
+  </si>
+  <si>
+    <t>target_minus_one_allowed</t>
+  </si>
+  <si>
+    <t>grouping_passes</t>
+  </si>
+  <si>
+    <t>availability_values_delimiter</t>
+  </si>
+  <si>
+    <t>student_id_field_name</t>
+  </si>
+  <si>
+    <t>timezone_field_name</t>
+  </si>
+  <si>
+    <t>preferred_students_field_names</t>
+  </si>
+  <si>
+    <t>disliked_students_field_names</t>
+  </si>
+  <si>
+    <t>availability_field_names</t>
+  </si>
+  <si>
+    <t>show_preferred_students</t>
+  </si>
+  <si>
+    <t>show_disliked_students</t>
+  </si>
+  <si>
+    <t>show_availability_overlap</t>
+  </si>
+  <si>
+    <t>show_scores</t>
+  </si>
+  <si>
+    <t>output_student_name</t>
+  </si>
+  <si>
+    <t>output_student_email</t>
+  </si>
+  <si>
+    <t>output_student_login</t>
+  </si>
+  <si>
+    <t>SER401</t>
+  </si>
+  <si>
+    <t>;,</t>
+  </si>
+  <si>
+    <t>Please select your ASURITE ID</t>
+  </si>
+  <si>
+    <t>In what time zone do you live or will you be during the session? Please use UTC so we can match it easier.</t>
+  </si>
+  <si>
+    <t>Preferred team member 1</t>
+  </si>
+  <si>
+    <t>Non-preferred student 1</t>
+  </si>
+  <si>
+    <t>Please choose times that are good for your team to meet. Times are in the Phoenix, AZ time zone! [0:00 AM - 3:00 AM]</t>
+  </si>
+  <si>
+    <t>Preferred team member 2</t>
+  </si>
+  <si>
+    <t>Non-preferred student 2</t>
+  </si>
+  <si>
+    <t>Please choose times that are good for your team to meet. Times are in the Phoenix, AZ time zone! [3:00 AM - 6:00 AM]</t>
+  </si>
+  <si>
+    <t>Preferred team member 3</t>
+  </si>
+  <si>
+    <t>Non-preferred student 3</t>
+  </si>
+  <si>
+    <t>Please choose times that are good for your team to meet. Times are in the Phoenix, AZ time zone! [6:00 AM - 9:00 AM]</t>
+  </si>
+  <si>
+    <t>Preferred team member 4</t>
+  </si>
+  <si>
+    <t>Please choose times that are good for your team to meet. Times are in the Phoenix, AZ time zone! [9:00 AM - 12:00 PM]</t>
+  </si>
+  <si>
+    <t>Preferred team member 5</t>
+  </si>
+  <si>
+    <t>Please choose times that are good for your team to meet. Times are in the Phoenix, AZ time zone! [12:00 PM - 3:00 PM]</t>
+  </si>
+  <si>
+    <t>Please choose times that are good for your team to meet. Times are in the Phoenix, AZ time zone! [3:00 PM - 6:00 PM]</t>
+  </si>
+  <si>
+    <t>Please choose times that are good for your team to meet. Times are in the Phoenix, AZ time zone! [6:00 PM - 9:00 PM]</t>
+  </si>
+  <si>
+    <t>Please choose times that are good for your team to meet. Times are in the Phoenix, AZ time zone! [9:00 PM - 12:00 PM]</t>
+  </si>
+  <si>
     <t>Timestamp</t>
   </si>
   <si>
     <t>Username</t>
   </si>
   <si>
-    <t>Please select your ASURITE ID</t>
-  </si>
-  <si>
     <t>Please enter your Github username (NOT your email address)</t>
   </si>
   <si>
     <t>Email address for us to invite you to the Taiga scrumboard</t>
   </si>
   <si>
-    <t>In what time zone do you live or will you be during the session? Please use UTC so we can match it easier.</t>
-  </si>
-  <si>
-    <t>Please choose times that are good for your team to meet. Times are in the Phoenix, AZ time zone! [0:00 AM - 3:00 AM]</t>
-  </si>
-  <si>
-    <t>Please choose times that are good for your team to meet. Times are in the Phoenix, AZ time zone! [3:00 AM - 6:00 AM]</t>
-  </si>
-  <si>
-    <t>Please choose times that are good for your team to meet. Times are in the Phoenix, AZ time zone! [6:00 AM - 9:00 AM]</t>
-  </si>
-  <si>
-    <t>Please choose times that are good for your team to meet. Times are in the Phoenix, AZ time zone! [9:00 AM - 12:00 PM]</t>
-  </si>
-  <si>
-    <t>Please choose times that are good for your team to meet. Times are in the Phoenix, AZ time zone! [12:00 PM - 3:00 PM]</t>
-  </si>
-  <si>
-    <t>Please choose times that are good for your team to meet. Times are in the Phoenix, AZ time zone! [3:00 PM - 6:00 PM]</t>
-  </si>
-  <si>
-    <t>Please choose times that are good for your team to meet. Times are in the Phoenix, AZ time zone! [6:00 PM - 9:00 PM]</t>
-  </si>
-  <si>
-    <t>Please choose times that are good for your team to meet. Times are in the Phoenix, AZ time zone! [9:00 PM - 12:00 PM]</t>
-  </si>
-  <si>
     <t>How well would you say you know GitHub? (1 not at all, 5 worked with it a lot - know how to merge, resolve conflicts, etc.) You are not expected to know GitHub well yet, so please be honest. It will not be used for grading what you put here but I want to try to have one student knowing GitHub in each team to make things easier.</t>
   </si>
   <si>
     <t xml:space="preserve">Do you know Scrum already? (1 just heard about it, 5 know it well (process, roles). You are not expected to know Scrum yet, so please be honest. It will not be used for grading what you put here. </t>
-  </si>
-  <si>
-    <t>Preferred team member 1</t>
-  </si>
-  <si>
-    <t>Preferred team member 2</t>
-  </si>
-  <si>
-    <t>Preferred team member 3</t>
-  </si>
-  <si>
-    <t>Preferred team member 4</t>
-  </si>
-  <si>
-    <t>Preferred team member 5</t>
-  </si>
-  <si>
-    <t>Non-preferred student 1</t>
-  </si>
-  <si>
-    <t>Non-preferred student 2</t>
-  </si>
-  <si>
-    <t>Non-preferred student 3</t>
   </si>
   <si>
     <t>2022/10/17 6:31:58 PM EST</t>
@@ -1484,6 +1545,184 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="I3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="I4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="I5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="K9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1492,105 +1731,105 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="H1" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="I1" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="K1" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="L1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="M1" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="N1" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="O1" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="P1" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="Q1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="R1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="S1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="T1" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="U1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="V1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="X1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="G2" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="L2" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="O2" t="s">
         <v>47</v>
@@ -1599,107 +1838,107 @@
         <v>29</v>
       </c>
       <c r="Q2" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="V2" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="W2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="F3" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="K3" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="L3" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="O3" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="P3" t="s">
         <v>46</v>
       </c>
       <c r="Q3" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="R3" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="V3" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="W3" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="L4" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="M4" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="N4" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="O4" t="s">
         <v>46</v>
       </c>
       <c r="P4" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="Q4" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="R4" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="V4" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:24">
